--- a/data/OsemosysNew.xlsx
+++ b/data/OsemosysNew.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\OSeMOSYS-pyomo\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9580AB56-5079-4E26-BC1B-DCBEDE772420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98AEC808-0AD7-4349-B1A8-C4EA385DC34A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1995" yWindow="-14505" windowWidth="21600" windowHeight="11295" firstSheet="11" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-75" yWindow="-16320" windowWidth="29040" windowHeight="15720" firstSheet="9" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SETS" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2015" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2018" uniqueCount="219">
   <si>
     <t>OSeMOSYS_UCLV</t>
   </si>
@@ -1016,7 +1016,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1078,6 +1078,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
@@ -2248,27 +2256,375 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF900A88-F8D2-4569-B848-BA01BE24E0F5}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E7223C4-9E97-45F2-95BA-485378CAF47C}">
+  <dimension ref="A1:AB3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q33" sqref="Q33"/>
+      <selection sqref="A1:AB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:28">
+      <c r="A1" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="32">
+        <v>2014</v>
+      </c>
+      <c r="C1" s="32">
+        <v>2015</v>
+      </c>
+      <c r="D1" s="32">
+        <v>2016</v>
+      </c>
+      <c r="E1" s="32">
+        <v>2017</v>
+      </c>
+      <c r="F1" s="32">
+        <v>2018</v>
+      </c>
+      <c r="G1" s="32">
+        <v>2019</v>
+      </c>
+      <c r="H1" s="32">
+        <v>2020</v>
+      </c>
+      <c r="I1" s="32">
+        <v>2021</v>
+      </c>
+      <c r="J1" s="32">
+        <v>2022</v>
+      </c>
+      <c r="K1" s="32">
+        <v>2023</v>
+      </c>
+      <c r="L1" s="32">
+        <v>2024</v>
+      </c>
+      <c r="M1" s="32">
+        <v>2025</v>
+      </c>
+      <c r="N1" s="32">
+        <v>2026</v>
+      </c>
+      <c r="O1" s="32">
+        <v>2027</v>
+      </c>
+      <c r="P1" s="32">
+        <v>2028</v>
+      </c>
+      <c r="Q1" s="32">
+        <v>2029</v>
+      </c>
+      <c r="R1" s="32">
+        <v>2030</v>
+      </c>
+      <c r="S1" s="32">
+        <v>2031</v>
+      </c>
+      <c r="T1" s="32">
+        <v>2032</v>
+      </c>
+      <c r="U1" s="32">
+        <v>2033</v>
+      </c>
+      <c r="V1" s="32">
+        <v>2034</v>
+      </c>
+      <c r="W1" s="32">
+        <v>2035</v>
+      </c>
+      <c r="X1" s="32">
+        <v>2036</v>
+      </c>
+      <c r="Y1" s="32">
+        <v>2037</v>
+      </c>
+      <c r="Z1" s="32">
+        <v>2038</v>
+      </c>
+      <c r="AA1" s="32">
+        <v>2039</v>
+      </c>
+      <c r="AB1" s="32">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
+      <c r="A2" s="32">
+        <v>1</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="31"/>
+    </row>
+    <row r="3" spans="1:28">
+      <c r="A3" s="32">
+        <v>2</v>
+      </c>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
+      <c r="AA3" s="31"/>
+      <c r="AB3" s="31"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D928754-38F4-412D-A5C2-D275AA543569}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C4DCDD0-44D0-4F4B-AA7B-3CA6484580BC}">
+  <dimension ref="A1:AC4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:AC4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:29">
+      <c r="A1" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="34">
+        <v>2014</v>
+      </c>
+      <c r="D1" s="34">
+        <v>2015</v>
+      </c>
+      <c r="E1" s="34">
+        <v>2016</v>
+      </c>
+      <c r="F1" s="34">
+        <v>2017</v>
+      </c>
+      <c r="G1" s="34">
+        <v>2018</v>
+      </c>
+      <c r="H1" s="34">
+        <v>2019</v>
+      </c>
+      <c r="I1" s="34">
+        <v>2020</v>
+      </c>
+      <c r="J1" s="34">
+        <v>2021</v>
+      </c>
+      <c r="K1" s="34">
+        <v>2022</v>
+      </c>
+      <c r="L1" s="34">
+        <v>2023</v>
+      </c>
+      <c r="M1" s="34">
+        <v>2024</v>
+      </c>
+      <c r="N1" s="34">
+        <v>2025</v>
+      </c>
+      <c r="O1" s="34">
+        <v>2026</v>
+      </c>
+      <c r="P1" s="34">
+        <v>2027</v>
+      </c>
+      <c r="Q1" s="34">
+        <v>2028</v>
+      </c>
+      <c r="R1" s="34">
+        <v>2029</v>
+      </c>
+      <c r="S1" s="34">
+        <v>2030</v>
+      </c>
+      <c r="T1" s="34">
+        <v>2031</v>
+      </c>
+      <c r="U1" s="34">
+        <v>2032</v>
+      </c>
+      <c r="V1" s="34">
+        <v>2033</v>
+      </c>
+      <c r="W1" s="34">
+        <v>2034</v>
+      </c>
+      <c r="X1" s="34">
+        <v>2035</v>
+      </c>
+      <c r="Y1" s="34">
+        <v>2036</v>
+      </c>
+      <c r="Z1" s="34">
+        <v>2037</v>
+      </c>
+      <c r="AA1" s="34">
+        <v>2038</v>
+      </c>
+      <c r="AB1" s="34">
+        <v>2039</v>
+      </c>
+      <c r="AC1" s="34">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
+      <c r="A2" s="34">
+        <v>1</v>
+      </c>
+      <c r="B2" s="34">
+        <v>1</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+    </row>
+    <row r="3" spans="1:29">
+      <c r="A3" s="34">
+        <v>2</v>
+      </c>
+      <c r="B3" s="34">
+        <v>1</v>
+      </c>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="33"/>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33"/>
+    </row>
+    <row r="4" spans="1:29">
+      <c r="A4" s="34">
+        <v>3</v>
+      </c>
+      <c r="B4" s="34">
+        <v>1</v>
+      </c>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="33"/>
+      <c r="Z4" s="33"/>
+      <c r="AA4" s="33"/>
+      <c r="AB4" s="33"/>
+      <c r="AC4" s="33"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
